--- a/QuanLyMoiTruong.WebApp/Assets/Template/Mau2_DanhSachCoSoHoatDongTrongKCN.xlsx
+++ b/QuanLyMoiTruong.WebApp/Assets/Template/Mau2_DanhSachCoSoHoatDongTrongKCN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LTSON\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT\QuanLyThueDat\QuanLyMoiTruong\QuanLyMoiTruong.WebApp\Assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB869DB-15E7-4459-9384-6FFB2200E097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE8248A-4CE6-4A8D-ADE9-7D08139B7D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TT</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Nguy hại (kg/năm)</t>
+  </si>
+  <si>
+    <t>Tên KCN</t>
   </si>
 </sst>
 </file>
@@ -264,11 +267,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -276,30 +297,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,173 +579,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M8"/>
+  <dimension ref="A2:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="1:14" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>-1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="2">
         <v>-2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="2">
         <v>-3</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="2">
         <v>-4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="2">
         <v>-5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="2">
         <v>-6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="2">
         <v>-7</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="2">
         <v>-8</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="2">
         <v>-9</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="2">
         <v>-10</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="2">
         <v>-11</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="2">
         <v>-12</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="2">
         <v>-13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="N5" s="2">
+        <v>-14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:M4"/>
+  <mergeCells count="9">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
